--- a/prueba_arquitectura_bls.xlsx
+++ b/prueba_arquitectura_bls.xlsx
@@ -545,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2671,6 +2671,17 @@
         <v>156.277</v>
       </c>
     </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>15</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="C193" t="n">
+        <v>156.452</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
